--- a/MRA/MRA_Answer.xlsx
+++ b/MRA/MRA_Answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neurophet\PycharmProjects\backup\MRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A50540-D7A0-435D-8A62-A51CAC5340B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91724A98-4E50-4545-906D-C5597EDA11A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C437E945-79A5-4099-9330-4F88F55B6CD3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C437E945-79A5-4099-9330-4F88F55B6CD3}"/>
   </bookViews>
   <sheets>
     <sheet name="MRA_Answer" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5140" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5140" uniqueCount="196">
   <si>
     <t>roi_product_name</t>
   </si>
@@ -615,6 +615,22 @@
   </si>
   <si>
     <t>Maximum Diameter</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoordinateX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>irb85_0331</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>irb85_0336</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoordinateY</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1590,7 +1606,7 @@
   <dimension ref="A1:G2395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1631,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1783,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -46626,7 +46642,7 @@
     </row>
     <row r="2388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2388" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B2388" t="s">
         <v>189</v>
@@ -46640,7 +46656,7 @@
     </row>
     <row r="2389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2389" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="B2389" t="s">
         <v>184</v>
